--- a/IRCS3_local/IRCS4_build/input_excel/input ul sha.xlsx
+++ b/IRCS3_local/IRCS4_build/input_excel/input ul sha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\run control 4\input_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\IRCS4_build\input_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219FEEC2-A9DF-4B3F-8BAE-62A6A28031F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C028E02C-2142-4EBC-838E-5623CA0D2D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Filter RAFM" sheetId="2" r:id="rId4"/>
     <sheet name="Code" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -449,11 +449,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -462,10 +475,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,7 +829,7 @@
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="10">
         <v>45809</v>
       </c>
       <c r="C1" s="7"/>
@@ -1139,18 +1153,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1164,25 +1178,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DFDF9-BC78-4956-BABA-B2D1AE47F4C2}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
@@ -1192,11 +1207,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1206,11 +1221,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -1220,11 +1235,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -1234,11 +1249,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1248,11 +1263,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1262,11 +1277,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -1276,12 +1291,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1290,12 +1305,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1304,12 +1319,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1318,12 +1333,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1332,12 +1347,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1346,12 +1361,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1360,12 +1375,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1374,12 +1389,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1388,12 +1403,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1402,12 +1417,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1416,12 +1431,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1430,12 +1445,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1444,12 +1459,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1458,12 +1473,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1472,12 +1487,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1486,12 +1501,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1500,12 +1515,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1514,12 +1529,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1528,31 +1543,103 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
       </c>
       <c r="C27" s="3">
         <v>2025</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>14</v>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
+        <f>A13&amp;"_ori"</f>
+        <v>Data_Extraction_run11UL_Sha_ori</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" ref="C29:D29" si="0">C13</f>
+        <v>-</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
+        <f t="shared" ref="A30:A31" si="1">A14&amp;"_ori"</f>
+        <v>Data_Extraction_run21UL_Sha_ori</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:D32" si="2">B14</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Data_Extraction_run31UL_Sha_ori</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="str">
+        <f>A16&amp;"_ori"</f>
+        <v>Data_Extraction_run41UL_Sha_ori</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE40447-EFD9-4533-9619-0FD56D9BC4CA}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,6 +1892,30 @@
         <v>59</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="str">
+        <f>B13&amp;"_ori"</f>
+        <v>Data_Extraction_run11UL_Sha_ori</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="str">
+        <f>B14&amp;"_ori"</f>
+        <v>Data_Extraction_run21UL_Sha_ori</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="str">
+        <f>B15&amp;"_ori"</f>
+        <v>Data_Extraction_run31UL_Sha_ori</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="str">
+        <f>B16&amp;"_ori"</f>
+        <v>Data_Extraction_run41UL_Sha_ori</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
